--- a/Assets/Tbl-Synthèse.xlsx
+++ b/Assets/Tbl-Synthèse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dasil\Desktop\Portfolio-HTML\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BF0C48-E2A0-4EBD-8862-26A4D5EF9BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17B8846-375F-484A-99A2-0546F5192A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12345" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Print_Area_0" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$41</definedName>
-    <definedName name="Print_Area_0_0" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$41</definedName>
+    <definedName name="Print_Area_0" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$43</definedName>
+    <definedName name="Print_Area_0_0" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$43</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Centre de formation : H3 Campus Poissy</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio : https://mon-portfolio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Labs -Packet Tracer (Configure : IP, Switch, Router) </t>
   </si>
   <si>
@@ -239,6 +236,15 @@
   <si>
     <t xml:space="preserve">Sortis divers sur différents sites RATP (Accompagnements SI/ Support SI) Prbl utilisateurs de NUIT </t>
   </si>
+  <si>
+    <t>Lab- Veille informatique</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://tms78.github.io/Portfolio-BTS/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation de machines virtuelles Linux ( Ubuntu et Kali) </t>
+  </si>
 </sst>
 </file>
 
@@ -247,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -345,6 +351,12 @@
     <font>
       <b/>
       <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -642,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -707,6 +719,30 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,28 +770,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1261,10 +1276,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK40"/>
+  <dimension ref="A1:AMK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1277,18 +1292,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="36"/>
       <c r="AR1"/>
       <c r="AS1"/>
       <c r="AT1"/>
@@ -2272,16 +2287,16 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
       <c r="AR2"/>
       <c r="AS2"/>
       <c r="AT2"/>
@@ -3265,18 +3280,18 @@
       <c r="AMJ2"/>
     </row>
     <row r="3" spans="1:1024" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -4263,13 +4278,13 @@
       <c r="AMJ3"/>
     </row>
     <row r="4" spans="1:1024" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -5262,16 +5277,16 @@
       <c r="AMJ4"/>
     </row>
     <row r="5" spans="1:1024" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="A5" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
       <c r="AR5"/>
       <c r="AS5"/>
       <c r="AT5"/>
@@ -6255,10 +6270,10 @@
       <c r="AMJ5"/>
     </row>
     <row r="6" spans="1:1024" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -7262,8 +7277,8 @@
       <c r="AMJ6"/>
     </row>
     <row r="7" spans="1:1024" s="1" customFormat="1" ht="325.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
@@ -7284,16 +7299,16 @@
       </c>
     </row>
     <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:1024" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -7313,7 +7328,7 @@
     </row>
     <row r="10" spans="1:1024" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>24</v>
@@ -7347,7 +7362,7 @@
     </row>
     <row r="12" spans="1:1024" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="16">
         <v>45313</v>
@@ -7367,265 +7382,257 @@
     </row>
     <row r="13" spans="1:1024" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:1024" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:1024" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:1024" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="37" t="s">
+      <c r="G16" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="37"/>
+        <v>34</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="28" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="37" t="s">
-        <v>23</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="37" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="37" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="24" t="s">
         <v>23</v>
       </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A25" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
+    <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="12"/>
+    <row r="27" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.35">
+      <c r="A27" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="D28" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="15" t="s">
         <v>23</v>
       </c>
@@ -7633,176 +7640,200 @@
     </row>
     <row r="29" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="31">
-        <v>45691</v>
-      </c>
-      <c r="C29" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="D29" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="E29" s="11"/>
       <c r="F29" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="32">
-        <v>45778</v>
-      </c>
-      <c r="C30" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="E30" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="F30" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="32">
-        <v>45839</v>
-      </c>
-      <c r="C31" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="22">
+        <v>45691</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="E31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="F31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="25" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="A32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="23">
+        <v>45778</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A33" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
+    <row r="33" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="23">
+        <v>45839</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="G34" s="11"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="12"/>
+    <row r="35" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.35">
+      <c r="A35" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
     </row>
     <row r="36" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="D37" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="A38" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
@@ -7816,14 +7847,34 @@
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7832,8 +7883,8 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A35:H35"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:A7"/>
